--- a/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
@@ -782,6 +782,9 @@
       <c r="C41" t="str">
         <v>756_雪花松_undefined_undefined_1bunch</v>
       </c>
+      <c r="F41" t="str">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -843,7 +846,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131055591078540104015101510101510636421010156346312025502015262980</v>
+        <v>0151310555910785401040151015101015106364210101563463120255020152629810</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:L51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -786,9 +786,92 @@
         <v>10</v>
       </c>
     </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>4</v>
+      </c>
+      <c r="C42" t="str">
+        <v>698_舞竹_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F42" t="str">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" t="str">
+        <v>325_小盼草_Northern Sea Oats_undefined_1bunch</v>
+      </c>
+      <c r="F43" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" t="str">
+        <v>691_银莲紫_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F44" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="C45" t="str">
+        <v>594_绿毛球_undefined_undefined_1bunch</v>
+      </c>
+      <c r="F45" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="C46" t="str">
+        <v>526_大刺秦_Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F46" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="C47" t="str">
+        <v>411_紫罗兰白_violet white_undefined_1bunch</v>
+      </c>
+      <c r="F47" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" xml:space="preserve">
+      <c r="C48" t="str" xml:space="preserve">
+        <v xml:space="preserve">404_小飞燕白色_ delphinium ballkleid
+white_undefined_1bunch</v>
+      </c>
+      <c r="F48" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" xml:space="preserve">
+      <c r="C49" t="str" xml:space="preserve">
+        <v xml:space="preserve">405_小飞燕浅蓝_ delphinium ballkleid
+dark blue_undefined_1bunch</v>
+      </c>
+      <c r="F49" t="str">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" t="str">
+        <v>418_松虫草白_scabiosa white_undefined_1bunch</v>
+      </c>
+      <c r="F50" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" xml:space="preserve">
+      <c r="C51" t="str" xml:space="preserve">
+        <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
+white_undefined_1bunch</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L41"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -846,7 +929,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>0151310555910785401040151015101015106364210101563463120255020152629810</v>
+        <v>015131055591078540104015101510101510636421010156346312025502015262981025556566200</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
@@ -868,6 +868,9 @@
         <v xml:space="preserve">508_风铃花白色_Canterbury Bells 
 white_undefined_1bunch</v>
       </c>
+      <c r="F51" t="str">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
@@ -929,7 +932,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131055591078540104015101510101510636421010156346312025502015262981025556566200</v>
+        <v>015131055591078540104015101510101510636421010156346312025502015262981025556566201</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L51"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -869,12 +869,80 @@
 white_undefined_1bunch</v>
       </c>
       <c r="F51" t="str">
-        <v>1</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>5</v>
+      </c>
+      <c r="C52" t="str">
+        <v>193_粉爱神_Pink Cupid_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F52" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" t="str">
+        <v>148_坦尼克_Tineke_Rosa rugosa Thunb._20stems</v>
+      </c>
+      <c r="F53" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" t="str">
+        <v>631_吸色康乃馨宝蓝_tinted blue_undefined_20stems</v>
+      </c>
+      <c r="F54" t="str">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" t="str">
+        <v>632_吸色康乃馨紫_tinted purple_undefined_20stems</v>
+      </c>
+      <c r="F55" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" t="str">
+        <v>14_波浪浅紫洋桔梗_Wavy Light Purple Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F56" t="str">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" t="str">
+        <v>1_白洋桔梗_White Lisianthus_Eustoma grandiflorum (Raf.) Shinners_800/600g</v>
+      </c>
+      <c r="F57" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" xml:space="preserve">
+      <c r="C58" t="str" xml:space="preserve">
+        <v xml:space="preserve">510_翠珠白_Didiscus caeruleus 
+white_Trachymene Coerulea_1bunch</v>
+      </c>
+      <c r="F58" t="str">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="C59" t="str">
+        <v>432_小刺秦/情人果_small Eryngium_undefined_1bunch</v>
+      </c>
+      <c r="F59" t="str">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:L51"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:L59"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -932,7 +1000,7 @@
         <v>0.00</v>
       </c>
       <c r="G2" t="str">
-        <v>015131055591078540104015101510101510636421010156346312025502015262981025556566201</v>
+        <v>015131055591078540104015101510101510636421010156346312025502015262981025556566201211101055121510</v>
       </c>
     </row>
   </sheetData>

--- a/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
+++ b/DateBase/orders/Dang Nguyen48_2025-12-16.xlsx
@@ -1002,6 +1002,9 @@
       <c r="G2" t="str">
         <v>015131055591078540104015101510101510636421010156346312025502015262981025556566201211101055121510</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
